--- a/output/agent_acc_counting_Feb.xlsx
+++ b/output/agent_acc_counting_Feb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Total</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Operator</t>
   </si>
   <si>
+    <t>eva@lilydc.com.tw</t>
+  </si>
+  <si>
     <t>kiki.kuo</t>
   </si>
   <si>
@@ -64,39 +67,18 @@
     <t>sp2311</t>
   </si>
   <si>
-    <t>sp2367</t>
-  </si>
-  <si>
     <t>sp2382</t>
   </si>
   <si>
     <t>sp2688</t>
   </si>
   <si>
-    <t>sp2715</t>
-  </si>
-  <si>
-    <t>sp2717</t>
-  </si>
-  <si>
-    <t>sp2748</t>
-  </si>
-  <si>
-    <t>sp2768</t>
-  </si>
-  <si>
     <t>sp2771</t>
   </si>
   <si>
     <t>sp2907</t>
   </si>
   <si>
-    <t>sp2912</t>
-  </si>
-  <si>
-    <t>sp2939</t>
-  </si>
-  <si>
     <t>sp2943</t>
   </si>
   <si>
@@ -106,10 +88,7 @@
     <t>sp2949</t>
   </si>
   <si>
-    <t>sp2950</t>
-  </si>
-  <si>
-    <t>sp2972</t>
+    <t>sp2967</t>
   </si>
   <si>
     <t>sp2974</t>
@@ -121,9 +100,6 @@
     <t>sp3341</t>
   </si>
   <si>
-    <t>sp3356</t>
-  </si>
-  <si>
     <t>sp3360</t>
   </si>
   <si>
@@ -151,10 +127,7 @@
     <t>sp99037</t>
   </si>
   <si>
-    <t>sp99044</t>
-  </si>
-  <si>
-    <t>sp99045</t>
+    <t>sp99042</t>
   </si>
   <si>
     <t>sp99054</t>
@@ -173,6 +146,9 @@
   </si>
   <si>
     <t>sp99075</t>
+  </si>
+  <si>
+    <t>sp99078</t>
   </si>
   <si>
     <t>sp99081</t>
@@ -539,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -584,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>611</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -601,16 +577,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>107</v>
+        <v>1474</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.9532710280373832</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -618,16 +594,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>459</v>
+        <v>252</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.9869281045751634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -635,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>105</v>
+        <v>613</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -652,16 +628,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>284</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.9964788732394366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -669,16 +645,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>119</v>
+        <v>292</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.9663865546218487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -686,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -703,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -720,7 +696,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -737,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>593</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -754,16 +730,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>421</v>
+        <v>139</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.9809976247030879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -771,16 +747,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9877300613496932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -788,7 +764,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -805,16 +781,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>266</v>
+        <v>512</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9774436090225564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -822,7 +798,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>703</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -839,7 +815,7 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>313</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -856,7 +832,7 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>314</v>
+        <v>246</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -873,16 +849,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0.9947089947089947</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -890,16 +866,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>557</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9910233393177738</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -907,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>278</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -924,7 +900,7 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -941,16 +917,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>767</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0.9857142857142858</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -958,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -975,7 +951,7 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -992,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1009,7 +985,7 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1026,7 +1002,7 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1043,7 +1019,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1060,7 +1036,7 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>476</v>
+        <v>167</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1077,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>34</v>
+        <v>447</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1094,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1111,7 +1087,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1128,7 +1104,7 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1145,16 +1121,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>496</v>
+        <v>725</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0.9979838709677419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1162,7 +1138,7 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1179,7 +1155,7 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1196,16 +1172,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>174</v>
+        <v>761</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.9597701149425287</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1213,7 +1189,7 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>49</v>
+        <v>557</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1230,7 +1206,7 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1247,7 +1223,7 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1264,7 +1240,7 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1281,7 +1257,7 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1290,142 +1266,6 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>278</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>112</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>268</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>372</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>0.9973118279569892</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>199</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>0.9949748743718593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
         <v>1</v>
       </c>
     </row>
